--- a/_WIP/Tobias/Mechanics.xlsx
+++ b/_WIP/Tobias/Mechanics.xlsx
@@ -15,8 +15,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Tobias Schuster</author>
+  </authors>
+  <commentList>
+    <comment ref="B10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tobias Schuster:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tobias Schuster:
+Macht eigentlich nur Sinn in Zusammenhang mit Stealth und Bedrohung durch Guard
+Kann auch genutzt werden um Spieler zusätzlichen "Timing" Skill abzufragen. Spieler muss sich richtig positionieren um in Reichweite des Guard für Possession zu sein.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>NO CASE</t>
   </si>
@@ -84,14 +120,59 @@
     <t>Sacrifice</t>
   </si>
   <si>
-    <t>Guard</t>
+    <t>Stealth</t>
+  </si>
+  <si>
+    <t>Guard Possession</t>
+  </si>
+  <si>
+    <t>Open Doors</t>
+  </si>
+  <si>
+    <t>Activate Switches</t>
+  </si>
+  <si>
+    <t>Pushing</t>
+  </si>
+  <si>
+    <t>Carrying</t>
+  </si>
+  <si>
+    <t>Must-Have</t>
+  </si>
+  <si>
+    <t>Should-Have</t>
+  </si>
+  <si>
+    <t>Could-Have</t>
+  </si>
+  <si>
+    <t>Nice-To-Have</t>
+  </si>
+  <si>
+    <t>Prio</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Guard Patrolling</t>
+  </si>
+  <si>
+    <t>Guard Capturing</t>
+  </si>
+  <si>
+    <t>Character Hiding</t>
+  </si>
+  <si>
+    <t>Medium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,8 +194,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +227,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -198,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -212,6 +342,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -512,20 +648,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.5703125" customWidth="1"/>
+    <col min="3" max="6" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -536,67 +673,225 @@
         <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="B10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/_WIP/Tobias/Mechanics.xlsx
+++ b/_WIP/Tobias/Mechanics.xlsx
@@ -21,7 +21,7 @@
     <author>Tobias Schuster</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0">
+    <comment ref="B16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>NO CASE</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
 </sst>
 </file>
@@ -208,7 +211,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,12 +232,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -248,12 +245,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,9 +283,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -303,9 +292,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -316,9 +303,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -328,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -339,20 +324,41 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -360,6 +366,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:F16" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A2:F16"/>
+  <sortState ref="A3:F16">
+    <sortCondition ref="A2:A16"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Category"/>
+    <tableColumn id="2" name="Mechanic"/>
+    <tableColumn id="3" name="Preference"/>
+    <tableColumn id="4" name="Prio"/>
+    <tableColumn id="5" name="Complexity"/>
+    <tableColumn id="6" name="Risk"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -652,246 +676,325 @@
   <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.5703125" customWidth="1"/>
-    <col min="3" max="6" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="7">
+        <v>3</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="6">
+        <v>21</v>
+      </c>
+      <c r="F10" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="9">
+        <v>3</v>
+      </c>
+      <c r="F11" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="D12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="8">
+        <v>8</v>
+      </c>
+      <c r="F12" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="E13" s="8">
+        <v>5</v>
+      </c>
+      <c r="F13" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="E14" s="8">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="8">
+        <v>13</v>
+      </c>
+      <c r="F15" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="14" t="s">
+      <c r="D16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="E16" s="8">
+        <v>5</v>
+      </c>
+      <c r="F16" s="8">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/_WIP/Tobias/Mechanics.xlsx
+++ b/_WIP/Tobias/Mechanics.xlsx
@@ -337,14 +337,6 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
@@ -358,6 +350,14 @@
         </top>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -369,7 +369,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:F16" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:F16" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
   <autoFilter ref="A2:F16"/>
   <sortState ref="A3:F16">
     <sortCondition ref="A2:A16"/>
@@ -676,7 +676,7 @@
   <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/_WIP/Tobias/Mechanics.xlsx
+++ b/_WIP/Tobias/Mechanics.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="18915" windowHeight="12345"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="18915" windowHeight="12345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
     <sheet name="Possesion" sheetId="1" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Jumpuzzles" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
   <si>
     <t>NO CASE</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>Low</t>
+  </si>
+  <si>
+    <t>Höhenunterschied</t>
+  </si>
+  <si>
+    <t>Abstand</t>
   </si>
 </sst>
 </file>
@@ -338,16 +344,16 @@
   <dxfs count="3">
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color indexed="64"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color indexed="64"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -369,7 +375,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:F16" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:F16" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A2:F16"/>
   <sortState ref="A3:F16">
     <sortCondition ref="A2:A16"/>
@@ -675,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1003,7 +1009,7 @@
   <dimension ref="A2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A2" sqref="A2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,12 +1123,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>